--- a/analysis/cfg-case-study/result-summary/abu-analysis/detach_after_accelerate_climb_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/detach_after_accelerate_climb_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="27948" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -1282,6 +1282,9 @@
     <xf numFmtId="179" fontId="0" fillId="5" borderId="6" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1298,9 +1301,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1594,22 +1594,22 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.105491286467357</c:v>
+                  <c:v>0.120545924743764</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.137450909067135</c:v>
+                  <c:v>0.15384350336785</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.111577446975439</c:v>
+                  <c:v>0.117097636753174</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.175303320904795</c:v>
+                  <c:v>0.19523895679036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.214419192151023</c:v>
+                  <c:v>0.234611676084082</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.172628746176359</c:v>
+                  <c:v>0.191752468903442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1738,22 +1738,22 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0738197454845966</c:v>
+                  <c:v>0.0860106441155944</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0981635571846676</c:v>
+                  <c:v>0.111695178418544</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0784196204864795</c:v>
+                  <c:v>0.0829715787929926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.119369602135383</c:v>
+                  <c:v>0.138767423900283</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.152429854459939</c:v>
+                  <c:v>0.172216824366053</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.118625589015677</c:v>
+                  <c:v>0.134547909970094</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,22 +1882,22 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0567744195904317</c:v>
+                  <c:v>0.0668567967849797</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0763426669986698</c:v>
+                  <c:v>0.0876749675180974</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.060454238507732</c:v>
+                  <c:v>0.0642477080906894</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0904953946944</c:v>
+                  <c:v>0.107634796883143</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.118244853990824</c:v>
+                  <c:v>0.136037677234995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0903588007699705</c:v>
+                  <c:v>0.103631914685213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2013,6 +2013,7 @@
         <c:axId val="379268388"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2819,15 +2820,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>614680</xdr:colOff>
+      <xdr:colOff>613410</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>168275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>306705</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
+      <xdr:rowOff>541655</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2835,8 +2836,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="19506565" y="8176895"/>
-        <a:ext cx="9713595" cy="5444490"/>
+        <a:off x="19505295" y="8176895"/>
+        <a:ext cx="10557510" cy="5816600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3109,8 +3110,8 @@
   <sheetPr/>
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AO96" sqref="AO96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3169,8 +3170,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="12">
-        <f>10*B3</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>9</v>
@@ -3180,9 +3180,8 @@
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10">
-        <f>0.5*B3</f>
-        <v>0.5</v>
+      <c r="B5" s="12">
+        <v>6</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>11</v>
@@ -3193,8 +3192,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="10">
-        <f>20*B3</f>
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>13</v>
@@ -3205,8 +3203,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="14">
-        <f>2*B3</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>15</v>
@@ -3365,56 +3362,56 @@
         <v>48</v>
       </c>
       <c r="C13" s="27">
-        <v>379.007417</v>
+        <v>404.979995</v>
       </c>
       <c r="D13" s="28">
-        <v>39.98198</v>
+        <v>48.818688</v>
       </c>
       <c r="E13" s="28">
-        <v>339.025437</v>
+        <v>356.161307</v>
       </c>
       <c r="F13" s="29">
         <f>(C13-E13)/C13</f>
-        <v>0.105491286467357</v>
+        <v>0.120545924743764</v>
       </c>
       <c r="G13" s="27">
         <v>3175</v>
       </c>
       <c r="H13" s="28">
-        <v>3269.075458</v>
+        <v>3371.090089</v>
       </c>
       <c r="I13" s="28">
-        <v>3135.01802</v>
+        <v>3126.181312</v>
       </c>
       <c r="J13" s="62">
         <f t="shared" ref="J13:J17" si="0">(G13-I13)/G13</f>
-        <v>0.0125927496062992</v>
+        <v>0.0153759647244094</v>
       </c>
       <c r="K13" s="28">
-        <v>62.166692</v>
+        <v>66.426844</v>
       </c>
       <c r="L13" s="28">
-        <v>55.304063</v>
+        <v>58.299238</v>
       </c>
       <c r="M13" s="62">
         <f>(K13-L13)/K13</f>
-        <v>0.110390770028426</v>
+        <v>0.122354239801006</v>
       </c>
       <c r="N13" s="63">
-        <v>6.558044</v>
+        <v>8.007485</v>
       </c>
       <c r="O13" s="63">
         <v>8.060826</v>
       </c>
       <c r="P13" s="28">
-        <v>60.966316</v>
+        <v>91.449474</v>
       </c>
       <c r="Q13" s="28">
-        <v>3.048316</v>
+        <v>36.57979</v>
       </c>
       <c r="R13" s="80">
         <f>O13+P13+Q13+B6+B7</f>
-        <v>94.075458</v>
+        <v>196.09009</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="81" t="s">
@@ -3425,15 +3422,15 @@
       </c>
       <c r="V13" s="82">
         <f>F14</f>
-        <v>0.105491286467357</v>
+        <v>0.120545924743764</v>
       </c>
       <c r="W13" s="82">
         <f>F15</f>
-        <v>0.0738197454845966</v>
+        <v>0.0860106441155944</v>
       </c>
       <c r="X13" s="83">
         <f>F16</f>
-        <v>0.0567744195904317</v>
+        <v>0.0668567967849797</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -3442,59 +3439,59 @@
         <v>53</v>
       </c>
       <c r="C14" s="31">
-        <v>379.007417</v>
+        <v>404.979995</v>
       </c>
       <c r="D14" s="32">
-        <v>39.98198</v>
+        <v>48.818688</v>
       </c>
       <c r="E14" s="32">
         <f>C14-D14</f>
-        <v>339.025437</v>
+        <v>356.161307</v>
       </c>
       <c r="F14" s="33">
         <f t="shared" ref="F14:F19" si="1">(C14-E14)/C14</f>
-        <v>0.105491286467357</v>
+        <v>0.120545924743764</v>
       </c>
       <c r="G14" s="34">
         <v>3175</v>
       </c>
       <c r="H14" s="35">
         <f>G14+R14</f>
-        <v>3269.075458</v>
+        <v>3371.09009</v>
       </c>
       <c r="I14" s="35">
         <f>H14-R14-C14+E14</f>
-        <v>3135.01802</v>
+        <v>3126.181312</v>
       </c>
       <c r="J14" s="64">
         <f t="shared" si="0"/>
-        <v>0.0125927496062992</v>
+        <v>0.0153759647244095</v>
       </c>
       <c r="K14" s="35">
-        <v>60.951151</v>
+        <v>66.426844</v>
       </c>
       <c r="L14" s="35">
-        <v>54.01272</v>
+        <v>58.299238</v>
       </c>
       <c r="M14" s="64">
         <f t="shared" ref="M14:M19" si="2">(K14-L14)/K14</f>
-        <v>0.113835930678323</v>
+        <v>0.122354239801006</v>
       </c>
       <c r="N14" s="32">
-        <v>6.593823</v>
+        <v>8.007485</v>
       </c>
       <c r="O14" s="32">
         <v>8.060826</v>
       </c>
       <c r="P14" s="32">
-        <v>60.966316</v>
+        <v>91.449474</v>
       </c>
       <c r="Q14" s="32">
-        <v>3.048316</v>
+        <v>36.57979</v>
       </c>
       <c r="R14" s="84">
         <f>O14+P14+Q14+B6+B7</f>
-        <v>94.075458</v>
+        <v>196.09009</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="81"/>
@@ -3503,15 +3500,15 @@
       </c>
       <c r="V14" s="82">
         <f>F26</f>
-        <v>0.137450909067135</v>
+        <v>0.15384350336785</v>
       </c>
       <c r="W14" s="82">
         <f>F27</f>
-        <v>0.0981635571846676</v>
+        <v>0.111695178418544</v>
       </c>
       <c r="X14" s="83">
         <f>F28</f>
-        <v>0.0763426669986698</v>
+        <v>0.0876749675180974</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -3520,35 +3517,35 @@
         <v>49</v>
       </c>
       <c r="C15" s="36">
-        <v>541.616335</v>
+        <v>567.588913</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="37">
-        <v>501.634355</v>
+        <v>518.770225</v>
       </c>
       <c r="F15" s="38">
         <f t="shared" si="1"/>
-        <v>0.0738197454845966</v>
+        <v>0.0860106441155944</v>
       </c>
       <c r="G15" s="39"/>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
       <c r="J15" s="65"/>
       <c r="K15" s="40">
-        <v>88.838619</v>
+        <v>93.098771</v>
       </c>
       <c r="L15" s="40">
-        <v>81.732238</v>
+        <v>84.673857</v>
       </c>
       <c r="M15" s="66">
         <f t="shared" si="2"/>
-        <v>0.0799920246396446</v>
+        <v>0.0904943632392312</v>
       </c>
       <c r="N15" s="37"/>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
-      <c r="R15" s="72"/>
+      <c r="R15" s="73"/>
       <c r="S15" s="4"/>
       <c r="T15" s="81"/>
       <c r="U15" s="1" t="s">
@@ -3556,15 +3553,15 @@
       </c>
       <c r="V15" s="82">
         <f>F38</f>
-        <v>0.111577446975439</v>
+        <v>0.117097636753174</v>
       </c>
       <c r="W15" s="82">
         <f>F39</f>
-        <v>0.0784196204864795</v>
+        <v>0.0829715787929926</v>
       </c>
       <c r="X15" s="83">
         <f>F40</f>
-        <v>0.060454238507732</v>
+        <v>0.0642477080906894</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -3573,35 +3570,35 @@
         <v>50</v>
       </c>
       <c r="C16" s="36">
-        <v>704.225253</v>
+        <v>730.197831</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37">
-        <v>664.243273</v>
+        <v>681.379143</v>
       </c>
       <c r="F16" s="38">
         <f t="shared" si="1"/>
-        <v>0.0567744195904317</v>
+        <v>0.0668567967849797</v>
       </c>
       <c r="G16" s="39"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
       <c r="J16" s="65"/>
       <c r="K16" s="40">
-        <v>115.510547</v>
+        <v>119.770699</v>
       </c>
       <c r="L16" s="40">
-        <v>108.160413</v>
+        <v>111.048476</v>
       </c>
       <c r="M16" s="66">
         <f t="shared" si="2"/>
-        <v>0.063631713214898</v>
+        <v>0.072824347464149</v>
       </c>
       <c r="N16" s="37"/>
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
-      <c r="R16" s="72"/>
+      <c r="R16" s="73"/>
       <c r="S16" s="4"/>
       <c r="T16" s="81" t="s">
         <v>56</v>
@@ -3611,15 +3608,15 @@
       </c>
       <c r="V16" s="82">
         <f>F17</f>
-        <v>0.175303320904795</v>
+        <v>0.19523895679036</v>
       </c>
       <c r="W16" s="82">
         <f>F18</f>
-        <v>0.119369602135383</v>
+        <v>0.138767423900283</v>
       </c>
       <c r="X16" s="83">
         <f>F19</f>
-        <v>0.0904953946944</v>
+        <v>0.107634796883143</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -3630,48 +3627,57 @@
         <v>48</v>
       </c>
       <c r="C17" s="43">
-        <v>343.028533</v>
+        <v>394.973689</v>
       </c>
       <c r="D17" s="44">
-        <v>60.134041</v>
+        <v>77.114251</v>
       </c>
       <c r="E17" s="44">
-        <v>282.894492</v>
+        <v>317.859438</v>
       </c>
       <c r="F17" s="45">
         <f t="shared" si="1"/>
-        <v>0.175303320904795</v>
+        <v>0.19523895679036</v>
       </c>
       <c r="G17" s="46">
         <v>3175</v>
       </c>
       <c r="H17" s="47">
-        <v>3269.251665</v>
+        <v>3371.266297</v>
       </c>
       <c r="I17" s="47">
-        <v>3114.865959</v>
+        <v>3097.885749</v>
       </c>
       <c r="J17" s="67">
         <f t="shared" si="0"/>
-        <v>0.0189398554330708</v>
+        <v>0.0242879530708661</v>
       </c>
       <c r="K17" s="47">
-        <v>56.265255</v>
+        <v>64.785559</v>
       </c>
       <c r="L17" s="47">
-        <v>45.95503</v>
+        <v>51.863806</v>
       </c>
       <c r="M17" s="68">
         <f t="shared" si="2"/>
-        <v>0.183243193334857</v>
-      </c>
-      <c r="N17" s="44">
-        <v>9.863486</v>
-      </c>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="73"/>
+        <v>0.199454217875931</v>
+      </c>
+      <c r="N17" s="69">
+        <v>12.648665</v>
+      </c>
+      <c r="O17" s="69">
+        <v>8.237033</v>
+      </c>
+      <c r="P17" s="44">
+        <v>91.449474</v>
+      </c>
+      <c r="Q17" s="44">
+        <v>36.57979</v>
+      </c>
+      <c r="R17" s="74">
+        <f>O17+P17+Q17+B6+B7</f>
+        <v>196.266297</v>
+      </c>
       <c r="S17" s="4"/>
       <c r="T17" s="81"/>
       <c r="U17" s="1" t="s">
@@ -3679,15 +3685,15 @@
       </c>
       <c r="V17" s="82">
         <f>F29</f>
-        <v>0.214419192151023</v>
+        <v>0.234611676084082</v>
       </c>
       <c r="W17" s="82">
         <f>F30</f>
-        <v>0.152429854459939</v>
+        <v>0.172216824366053</v>
       </c>
       <c r="X17" s="83">
         <f>F31</f>
-        <v>0.118244853990824</v>
+        <v>0.136037677234995</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -3696,35 +3702,35 @@
         <v>49</v>
       </c>
       <c r="C18" s="43">
-        <v>503.763445</v>
+        <v>555.708601</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="44">
-        <v>443.629403</v>
+        <v>478.59435</v>
       </c>
       <c r="F18" s="48">
         <f t="shared" si="1"/>
-        <v>0.119369602135383</v>
+        <v>0.138767423900283</v>
       </c>
       <c r="G18" s="46"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="J18" s="67"/>
       <c r="K18" s="47">
-        <v>82.629799</v>
+        <v>91.150103</v>
       </c>
       <c r="L18" s="47">
-        <v>71.940175</v>
-      </c>
-      <c r="M18" s="69">
+        <v>77.742831</v>
+      </c>
+      <c r="M18" s="70">
         <f t="shared" si="2"/>
-        <v>0.129367663111464</v>
+        <v>0.147090036749602</v>
       </c>
       <c r="N18" s="44"/>
       <c r="O18" s="44"/>
       <c r="P18" s="44"/>
       <c r="Q18" s="44"/>
-      <c r="R18" s="73"/>
+      <c r="R18" s="74"/>
       <c r="S18" s="4"/>
       <c r="T18" s="85"/>
       <c r="U18" s="86" t="s">
@@ -3732,15 +3738,15 @@
       </c>
       <c r="V18" s="87">
         <f>F41</f>
-        <v>0.172628746176359</v>
+        <v>0.191752468903442</v>
       </c>
       <c r="W18" s="87">
         <f>F42</f>
-        <v>0.118625589015677</v>
+        <v>0.134547909970094</v>
       </c>
       <c r="X18" s="88">
         <f>F43</f>
-        <v>0.0903588007699705</v>
+        <v>0.103631914685213</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3749,35 +3755,35 @@
         <v>50</v>
       </c>
       <c r="C19" s="51">
-        <v>664.498356</v>
+        <v>716.443513</v>
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="52">
-        <v>604.364315</v>
+        <v>639.329261</v>
       </c>
       <c r="F19" s="53">
         <f t="shared" si="1"/>
-        <v>0.0904953946944</v>
+        <v>0.107634796883143</v>
       </c>
       <c r="G19" s="54"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
-      <c r="J19" s="70"/>
+      <c r="J19" s="71"/>
       <c r="K19" s="52">
-        <v>108.994343</v>
+        <v>117.514647</v>
       </c>
       <c r="L19" s="52">
-        <v>97.92532</v>
-      </c>
-      <c r="M19" s="71">
+        <v>103.621856</v>
+      </c>
+      <c r="M19" s="72">
         <f t="shared" si="2"/>
-        <v>0.101555940384906</v>
+        <v>0.118221782174949</v>
       </c>
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
       <c r="P19" s="52"/>
       <c r="Q19" s="52"/>
-      <c r="R19" s="74"/>
+      <c r="R19" s="75"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="55"/>
@@ -3785,10 +3791,11 @@
       <c r="C20" s="56"/>
       <c r="F20" s="57"/>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:9">
       <c r="A21" s="55"/>
       <c r="B21" s="55"/>
       <c r="C21" s="56"/>
+      <c r="I21" s="44"/>
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:2">
       <c r="A22" s="16" t="s">
@@ -3932,56 +3939,56 @@
         <v>48</v>
       </c>
       <c r="C26" s="27">
-        <v>255.741728</v>
+        <v>271.24277</v>
       </c>
       <c r="D26" s="28">
-        <v>35.151933</v>
+        <v>41.728938</v>
       </c>
       <c r="E26" s="28">
-        <v>220.589795</v>
+        <v>229.513832</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ref="F26:F31" si="3">(C26-E26)/C26</f>
-        <v>0.137450909067135</v>
+        <v>0.15384350336785</v>
       </c>
       <c r="G26" s="27">
         <v>2404</v>
       </c>
       <c r="H26" s="28">
-        <v>2510.951107</v>
+        <v>2612.965739</v>
       </c>
       <c r="I26" s="28">
-        <v>2368.848067</v>
+        <v>2362.271062</v>
       </c>
       <c r="J26" s="62">
         <f>(G26-I26)/G26</f>
-        <v>0.0146222683028287</v>
+        <v>0.0173581272878537</v>
       </c>
       <c r="K26" s="28">
-        <v>41.948037</v>
+        <v>44.490595</v>
       </c>
       <c r="L26" s="28">
-        <v>35.936649</v>
+        <v>37.678328</v>
       </c>
       <c r="M26" s="62">
         <f t="shared" ref="M26:M31" si="4">(K26-L26)/K26</f>
-        <v>0.143305585431805</v>
+        <v>0.153117012707967</v>
       </c>
       <c r="N26" s="63">
-        <v>5.765796</v>
+        <v>6.844589</v>
       </c>
       <c r="O26" s="63">
         <v>20.936475</v>
       </c>
       <c r="P26" s="28">
-        <v>60.966316</v>
+        <v>91.449474</v>
       </c>
       <c r="Q26" s="28">
-        <v>3.048316</v>
+        <v>36.57979</v>
       </c>
       <c r="R26" s="80">
         <f>O26+P26+Q26+B6+B7</f>
-        <v>106.951107</v>
+        <v>208.965739</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3990,35 +3997,35 @@
         <v>49</v>
       </c>
       <c r="C27" s="36">
-        <v>358.09555</v>
+        <v>373.596592</v>
       </c>
       <c r="D27" s="37"/>
       <c r="E27" s="37">
-        <v>322.943617</v>
+        <v>331.867654</v>
       </c>
       <c r="F27" s="38">
         <f t="shared" si="3"/>
-        <v>0.0981635571846676</v>
+        <v>0.111695178418544</v>
       </c>
       <c r="G27" s="39"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="72"/>
+      <c r="J27" s="73"/>
       <c r="K27" s="40">
-        <v>58.736623</v>
+        <v>61.279181</v>
       </c>
       <c r="L27" s="40">
-        <v>52.460934</v>
+        <v>54.153523</v>
       </c>
       <c r="M27" s="66">
         <f t="shared" si="4"/>
-        <v>0.106844566123592</v>
+        <v>0.116281873936925</v>
       </c>
       <c r="N27" s="37"/>
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
       <c r="Q27" s="37"/>
-      <c r="R27" s="72"/>
+      <c r="R27" s="73"/>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="25"/>
@@ -4026,35 +4033,35 @@
         <v>50</v>
       </c>
       <c r="C28" s="36">
-        <v>460.449371</v>
+        <v>475.950413</v>
       </c>
       <c r="D28" s="37"/>
       <c r="E28" s="37">
-        <v>425.297438</v>
+        <v>434.221476</v>
       </c>
       <c r="F28" s="38">
         <f t="shared" si="3"/>
-        <v>0.0763426669986698</v>
+        <v>0.0876749675180974</v>
       </c>
       <c r="G28" s="39"/>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="72"/>
+      <c r="J28" s="73"/>
       <c r="K28" s="40">
-        <v>75.525208</v>
+        <v>78.067767</v>
       </c>
       <c r="L28" s="40">
-        <v>68.98522</v>
+        <v>70.628718</v>
       </c>
       <c r="M28" s="66">
         <f t="shared" si="4"/>
-        <v>0.0865934457274187</v>
+        <v>0.0952896347092904</v>
       </c>
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
       <c r="P28" s="37"/>
       <c r="Q28" s="37"/>
-      <c r="R28" s="72"/>
+      <c r="R28" s="73"/>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="41" t="s">
@@ -4064,48 +4071,57 @@
         <v>48</v>
       </c>
       <c r="C29" s="43">
-        <v>253.145236</v>
+        <v>284.14732</v>
       </c>
       <c r="D29" s="44">
-        <v>54.348348</v>
+        <v>66.664278</v>
       </c>
       <c r="E29" s="44">
-        <v>198.866039</v>
+        <v>217.483041</v>
       </c>
       <c r="F29" s="45">
         <f t="shared" si="3"/>
-        <v>0.214419192151023</v>
+        <v>0.234611676084082</v>
       </c>
       <c r="G29" s="46">
         <v>2404</v>
       </c>
       <c r="H29" s="47">
-        <v>2511.409757</v>
+        <v>2613.424389</v>
       </c>
       <c r="I29" s="47">
-        <v>2349.720803</v>
+        <v>2337.335722</v>
       </c>
       <c r="J29" s="67">
         <f>(G29-I29)/G29</f>
-        <v>0.0225787009151414</v>
+        <v>0.027730564891847</v>
       </c>
       <c r="K29" s="47">
-        <v>41.522147</v>
+        <v>46.607264</v>
       </c>
       <c r="L29" s="47">
-        <v>32.223246</v>
+        <v>35.646334</v>
       </c>
       <c r="M29" s="68">
         <f t="shared" si="4"/>
-        <v>0.22395038965591</v>
-      </c>
-      <c r="N29" s="44">
-        <v>8.903145</v>
-      </c>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="73"/>
+        <v>0.235176430867085</v>
+      </c>
+      <c r="N29" s="69">
+        <v>10.934608</v>
+      </c>
+      <c r="O29" s="69">
+        <v>21.395125</v>
+      </c>
+      <c r="P29" s="44">
+        <v>91.449474</v>
+      </c>
+      <c r="Q29" s="44">
+        <v>36.57979</v>
+      </c>
+      <c r="R29" s="74">
+        <f>O29+P29+Q29+B6+B7</f>
+        <v>209.424389</v>
+      </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="41"/>
@@ -4113,35 +4129,35 @@
         <v>49</v>
       </c>
       <c r="C30" s="43">
-        <v>356.092953</v>
+        <v>387.095037</v>
       </c>
       <c r="D30" s="44"/>
       <c r="E30" s="44">
-        <v>301.813756</v>
+        <v>320.430759</v>
       </c>
       <c r="F30" s="48">
         <f t="shared" si="3"/>
-        <v>0.152429854459939</v>
+        <v>0.172216824366053</v>
       </c>
       <c r="G30" s="46"/>
       <c r="H30" s="47"/>
       <c r="I30" s="47"/>
-      <c r="J30" s="73"/>
+      <c r="J30" s="74"/>
       <c r="K30" s="47">
-        <v>58.408147</v>
+        <v>63.493263</v>
       </c>
       <c r="L30" s="47">
-        <v>48.685847</v>
-      </c>
-      <c r="M30" s="69">
+        <v>52.013465</v>
+      </c>
+      <c r="M30" s="70">
         <f t="shared" si="4"/>
-        <v>0.166454518750612</v>
+        <v>0.180803402716915</v>
       </c>
       <c r="N30" s="44"/>
       <c r="O30" s="44"/>
       <c r="P30" s="44"/>
       <c r="Q30" s="44"/>
-      <c r="R30" s="73"/>
+      <c r="R30" s="74"/>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="49"/>
@@ -4149,35 +4165,35 @@
         <v>50</v>
       </c>
       <c r="C31" s="51">
-        <v>459.04067</v>
+        <v>490.042754</v>
       </c>
       <c r="D31" s="52"/>
       <c r="E31" s="52">
-        <v>404.761473</v>
+        <v>423.378476</v>
       </c>
       <c r="F31" s="53">
         <f t="shared" si="3"/>
-        <v>0.118244853990824</v>
+        <v>0.136037677234995</v>
       </c>
       <c r="G31" s="54"/>
       <c r="H31" s="52"/>
       <c r="I31" s="52"/>
-      <c r="J31" s="74"/>
+      <c r="J31" s="75"/>
       <c r="K31" s="52">
-        <v>75.294146</v>
+        <v>80.379263</v>
       </c>
       <c r="L31" s="52">
-        <v>65.148448</v>
-      </c>
-      <c r="M31" s="71">
+        <v>68.380596</v>
+      </c>
+      <c r="M31" s="72">
         <f t="shared" si="4"/>
-        <v>0.134747500821644</v>
+        <v>0.149275653348551</v>
       </c>
       <c r="N31" s="52"/>
       <c r="O31" s="52"/>
       <c r="P31" s="52"/>
       <c r="Q31" s="52"/>
-      <c r="R31" s="74"/>
+      <c r="R31" s="75"/>
     </row>
     <row r="34" ht="24" customHeight="1" spans="1:2">
       <c r="A34" s="16" t="s">
@@ -4321,56 +4337,56 @@
         <v>48</v>
       </c>
       <c r="C38" s="27">
-        <v>381.922397</v>
+        <v>443.464808</v>
       </c>
       <c r="D38" s="28">
-        <v>42.613927</v>
+        <v>51.928681</v>
       </c>
       <c r="E38" s="28">
-        <v>339.308471</v>
+        <v>391.536127</v>
       </c>
       <c r="F38" s="29">
         <f t="shared" ref="F38:F43" si="5">(C38-E38)/C38</f>
-        <v>0.111577446975439</v>
+        <v>0.117097636753174</v>
       </c>
       <c r="G38" s="27">
-        <v>3200</v>
+        <v>3350</v>
       </c>
       <c r="H38" s="28">
-        <v>3303.650975</v>
+        <v>3560.142502</v>
       </c>
       <c r="I38" s="28">
-        <v>3157.386073</v>
+        <v>3298.071319</v>
       </c>
       <c r="J38" s="62">
         <f>(G38-I38)/G38</f>
-        <v>0.0133168521875</v>
+        <v>0.0155010988059701</v>
       </c>
       <c r="K38" s="28">
-        <v>62.644821</v>
+        <v>72.739315</v>
       </c>
       <c r="L38" s="28">
-        <v>55.256298</v>
+        <v>63.984508</v>
       </c>
       <c r="M38" s="62">
         <f t="shared" ref="M38:M43" si="6">(K38-L38)/K38</f>
-        <v>0.117943077848367</v>
+        <v>0.120358667111451</v>
       </c>
       <c r="N38" s="63">
-        <v>6.989749</v>
+        <v>8.517602</v>
       </c>
       <c r="O38" s="63">
-        <v>17.636344</v>
+        <v>22.113238</v>
       </c>
       <c r="P38" s="28">
-        <v>60.966316</v>
+        <v>91.449474</v>
       </c>
       <c r="Q38" s="28">
-        <v>3.048316</v>
+        <v>36.57979</v>
       </c>
       <c r="R38" s="80">
         <f>O38+P38+Q38+B6+B7</f>
-        <v>103.650976</v>
+        <v>210.142502</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -4379,35 +4395,35 @@
         <v>49</v>
       </c>
       <c r="C39" s="36">
-        <v>543.408993</v>
+        <v>625.861069</v>
       </c>
       <c r="D39" s="37"/>
       <c r="E39" s="37">
-        <v>500.795066</v>
+        <v>573.932388</v>
       </c>
       <c r="F39" s="38">
         <f t="shared" si="5"/>
-        <v>0.0784196204864795</v>
+        <v>0.0829715787929926</v>
       </c>
       <c r="G39" s="39"/>
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
-      <c r="J39" s="72"/>
+      <c r="J39" s="73"/>
       <c r="K39" s="40">
-        <v>89.13266</v>
+        <v>102.656862</v>
       </c>
       <c r="L39" s="40">
-        <v>81.43743</v>
+        <v>93.516953</v>
       </c>
       <c r="M39" s="66">
         <f t="shared" si="6"/>
-        <v>0.0863345714129927</v>
+        <v>0.089033590370218</v>
       </c>
       <c r="N39" s="37"/>
       <c r="O39" s="37"/>
       <c r="P39" s="37"/>
       <c r="Q39" s="37"/>
-      <c r="R39" s="72"/>
+      <c r="R39" s="73"/>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="25"/>
@@ -4415,35 +4431,35 @@
         <v>50</v>
       </c>
       <c r="C40" s="36">
-        <v>704.895588</v>
+        <v>808.25733</v>
       </c>
       <c r="D40" s="37"/>
       <c r="E40" s="37">
-        <v>662.281662</v>
+        <v>756.328649</v>
       </c>
       <c r="F40" s="38">
         <f t="shared" si="5"/>
-        <v>0.060454238507732</v>
+        <v>0.0642477080906894</v>
       </c>
       <c r="G40" s="39"/>
       <c r="H40" s="40"/>
       <c r="I40" s="40"/>
-      <c r="J40" s="72"/>
+      <c r="J40" s="73"/>
       <c r="K40" s="40">
-        <v>115.620499</v>
+        <v>132.574409</v>
       </c>
       <c r="L40" s="40">
-        <v>107.618562</v>
+        <v>123.049398</v>
       </c>
       <c r="M40" s="66">
         <f t="shared" si="6"/>
-        <v>0.0692086357454658</v>
+        <v>0.0718465280882376</v>
       </c>
       <c r="N40" s="37"/>
       <c r="O40" s="37"/>
       <c r="P40" s="37"/>
       <c r="Q40" s="37"/>
-      <c r="R40" s="72"/>
+      <c r="R40" s="73"/>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="41" t="s">
@@ -4453,48 +4469,57 @@
         <v>48</v>
       </c>
       <c r="C41" s="43">
-        <v>353.164333</v>
+        <v>426.287935</v>
       </c>
       <c r="D41" s="44">
-        <v>60.966316</v>
+        <v>81.741764</v>
       </c>
       <c r="E41" s="44">
-        <v>292.198017</v>
+        <v>344.546171</v>
       </c>
       <c r="F41" s="45">
         <f t="shared" si="5"/>
-        <v>0.172628746176359</v>
+        <v>0.191752468903442</v>
       </c>
       <c r="G41" s="46">
-        <v>3200</v>
+        <v>3350</v>
       </c>
       <c r="H41" s="47">
-        <v>3304.037362</v>
+        <v>3560.627418</v>
       </c>
       <c r="I41" s="47">
-        <v>3139.033684</v>
+        <v>3268.258236</v>
       </c>
       <c r="J41" s="67">
         <f>(G41-I41)/G41</f>
-        <v>0.01905197375</v>
+        <v>0.0244005265671641</v>
       </c>
       <c r="K41" s="47">
-        <v>57.92778</v>
+        <v>69.921879</v>
       </c>
       <c r="L41" s="47">
-        <v>47.41672</v>
+        <v>56.117239</v>
       </c>
       <c r="M41" s="68">
         <f t="shared" si="6"/>
-        <v>0.181451110330829</v>
-      </c>
-      <c r="N41" s="75">
-        <v>10</v>
-      </c>
-      <c r="O41" s="44"/>
-      <c r="P41" s="44"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="73"/>
+        <v>0.197429476973867</v>
+      </c>
+      <c r="N41" s="69">
+        <v>13.407693</v>
+      </c>
+      <c r="O41" s="69">
+        <v>22.598154</v>
+      </c>
+      <c r="P41" s="44">
+        <v>91.449474</v>
+      </c>
+      <c r="Q41" s="44">
+        <v>36.57979</v>
+      </c>
+      <c r="R41" s="74">
+        <f>O41+P41+Q41+B6+B7</f>
+        <v>210.627418</v>
+      </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="41"/>
@@ -4502,35 +4527,35 @@
         <v>49</v>
       </c>
       <c r="C42" s="43">
-        <v>513.938995</v>
+        <v>607.529058</v>
       </c>
       <c r="D42" s="44"/>
       <c r="E42" s="44">
-        <v>452.972679</v>
+        <v>525.787293</v>
       </c>
       <c r="F42" s="48">
         <f t="shared" si="5"/>
-        <v>0.118625589015677</v>
+        <v>0.134547909970094</v>
       </c>
       <c r="G42" s="46"/>
       <c r="H42" s="47"/>
       <c r="I42" s="47"/>
-      <c r="J42" s="73"/>
+      <c r="J42" s="74"/>
       <c r="K42" s="47">
-        <v>84.298844</v>
+        <v>99.649954</v>
       </c>
       <c r="L42" s="47">
-        <v>73.335556</v>
-      </c>
-      <c r="M42" s="69">
+        <v>85.22097</v>
+      </c>
+      <c r="M42" s="70">
         <f t="shared" si="6"/>
-        <v>0.130052649357801</v>
+        <v>0.144796695039117</v>
       </c>
       <c r="N42" s="44"/>
       <c r="O42" s="44"/>
       <c r="P42" s="44"/>
       <c r="Q42" s="44"/>
-      <c r="R42" s="73"/>
+      <c r="R42" s="74"/>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="49"/>
@@ -4538,35 +4563,35 @@
         <v>50</v>
       </c>
       <c r="C43" s="51">
-        <v>674.713658</v>
+        <v>788.77018</v>
       </c>
       <c r="D43" s="52"/>
       <c r="E43" s="52">
-        <v>613.747341</v>
+        <v>707.028416</v>
       </c>
       <c r="F43" s="53">
         <f t="shared" si="5"/>
-        <v>0.0903588007699705</v>
+        <v>0.103631914685213</v>
       </c>
       <c r="G43" s="54"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
-      <c r="J43" s="74"/>
+      <c r="J43" s="75"/>
       <c r="K43" s="52">
-        <v>110.669908</v>
+        <v>129.378029</v>
       </c>
       <c r="L43" s="52">
-        <v>99.254391</v>
-      </c>
-      <c r="M43" s="71">
+        <v>114.3247</v>
+      </c>
+      <c r="M43" s="72">
         <f t="shared" si="6"/>
-        <v>0.10314924089392</v>
+        <v>0.116351509729677</v>
       </c>
       <c r="N43" s="52"/>
       <c r="O43" s="52"/>
       <c r="P43" s="52"/>
       <c r="Q43" s="52"/>
-      <c r="R43" s="74"/>
+      <c r="R43" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="27">

--- a/analysis/cfg-case-study/result-summary/abu-analysis/detach_after_accelerate_climb_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/detach_after_accelerate_climb_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12240"/>
+    <workbookView windowWidth="22188" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -3110,8 +3110,8 @@
   <sheetPr/>
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AO96" sqref="AO96"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AK47" sqref="AK47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/analysis/cfg-case-study/result-summary/abu-analysis/detach_after_accelerate_climb_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/detach_after_accelerate_climb_1500_3000_ft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="27948" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -1594,22 +1594,22 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.120545924743764</c:v>
+                  <c:v>0.121212064448412</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15384350336785</c:v>
+                  <c:v>0.15473712009052</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.117097636753174</c:v>
+                  <c:v>0.118118784310459</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.19523895679036</c:v>
+                  <c:v>0.196858626897629</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.234611676084082</c:v>
+                  <c:v>0.236550410225778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.191752468903442</c:v>
+                  <c:v>0.19439371524307</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1738,22 +1738,22 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0860106441155944</c:v>
+                  <c:v>0.0865337477206262</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.111695178418544</c:v>
+                  <c:v>0.112420943224226</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0829715787929926</c:v>
+                  <c:v>0.0837610559986001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.138767423900283</c:v>
+                  <c:v>0.140191390234223</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.172216824366053</c:v>
+                  <c:v>0.174032132106596</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.134547909970094</c:v>
+                  <c:v>0.136794765945933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,22 +1882,22 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0668567967849797</c:v>
+                  <c:v>0.0672840359087836</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0876749675180974</c:v>
+                  <c:v>0.0882791236797146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0642477080906894</c:v>
+                  <c:v>0.0648870697326452</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.107634796883143</c:v>
+                  <c:v>0.108856290070155</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.136037677234995</c:v>
+                  <c:v>0.137651897145912</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.103631914685213</c:v>
+                  <c:v>0.105527050494084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3110,8 +3110,8 @@
   <sheetPr/>
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="AK47" sqref="AK47"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AK4" sqref="AK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3362,17 +3362,17 @@
         <v>48</v>
       </c>
       <c r="C13" s="27">
-        <v>404.979995</v>
+        <v>401.98539</v>
       </c>
       <c r="D13" s="28">
-        <v>48.818688</v>
+        <v>48.725479</v>
       </c>
       <c r="E13" s="28">
-        <v>356.161307</v>
+        <v>353.259911</v>
       </c>
       <c r="F13" s="29">
         <f>(C13-E13)/C13</f>
-        <v>0.120545924743764</v>
+        <v>0.121212064448412</v>
       </c>
       <c r="G13" s="27">
         <v>3175</v>
@@ -3381,24 +3381,24 @@
         <v>3371.090089</v>
       </c>
       <c r="I13" s="28">
-        <v>3126.181312</v>
+        <v>3126.274521</v>
       </c>
       <c r="J13" s="62">
         <f t="shared" ref="J13:J17" si="0">(G13-I13)/G13</f>
-        <v>0.0153759647244094</v>
+        <v>0.0153466075590552</v>
       </c>
       <c r="K13" s="28">
-        <v>66.426844</v>
+        <v>65.935654</v>
       </c>
       <c r="L13" s="28">
-        <v>58.299238</v>
+        <v>57.832485</v>
       </c>
       <c r="M13" s="62">
         <f>(K13-L13)/K13</f>
-        <v>0.122354239801006</v>
+        <v>0.122895103156177</v>
       </c>
       <c r="N13" s="63">
-        <v>8.007485</v>
+        <v>7.992197</v>
       </c>
       <c r="O13" s="63">
         <v>8.060826</v>
@@ -3422,15 +3422,15 @@
       </c>
       <c r="V13" s="82">
         <f>F14</f>
-        <v>0.120545924743764</v>
+        <v>0.121212064448412</v>
       </c>
       <c r="W13" s="82">
         <f>F15</f>
-        <v>0.0860106441155944</v>
+        <v>0.0865337477206262</v>
       </c>
       <c r="X13" s="83">
         <f>F16</f>
-        <v>0.0668567967849797</v>
+        <v>0.0672840359087836</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -3439,18 +3439,18 @@
         <v>53</v>
       </c>
       <c r="C14" s="31">
-        <v>404.979995</v>
+        <v>401.98539</v>
       </c>
       <c r="D14" s="32">
-        <v>48.818688</v>
+        <v>48.725479</v>
       </c>
       <c r="E14" s="32">
         <f>C14-D14</f>
-        <v>356.161307</v>
+        <v>353.259911</v>
       </c>
       <c r="F14" s="33">
         <f t="shared" ref="F14:F19" si="1">(C14-E14)/C14</f>
-        <v>0.120545924743764</v>
+        <v>0.121212064448412</v>
       </c>
       <c r="G14" s="34">
         <v>3175</v>
@@ -3461,24 +3461,24 @@
       </c>
       <c r="I14" s="35">
         <f>H14-R14-C14+E14</f>
-        <v>3126.181312</v>
+        <v>3126.274521</v>
       </c>
       <c r="J14" s="64">
         <f t="shared" si="0"/>
-        <v>0.0153759647244095</v>
+        <v>0.015346607559055</v>
       </c>
       <c r="K14" s="35">
-        <v>66.426844</v>
+        <v>65.935654</v>
       </c>
       <c r="L14" s="35">
-        <v>58.299238</v>
+        <v>57.832485</v>
       </c>
       <c r="M14" s="64">
         <f t="shared" ref="M14:M19" si="2">(K14-L14)/K14</f>
-        <v>0.122354239801006</v>
+        <v>0.122895103156177</v>
       </c>
       <c r="N14" s="32">
-        <v>8.007485</v>
+        <v>7.992197</v>
       </c>
       <c r="O14" s="32">
         <v>8.060826</v>
@@ -3500,15 +3500,15 @@
       </c>
       <c r="V14" s="82">
         <f>F26</f>
-        <v>0.15384350336785</v>
+        <v>0.15473712009052</v>
       </c>
       <c r="W14" s="82">
         <f>F27</f>
-        <v>0.111695178418544</v>
+        <v>0.112420943224226</v>
       </c>
       <c r="X14" s="83">
         <f>F28</f>
-        <v>0.0876749675180974</v>
+        <v>0.0882791236797146</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -3517,29 +3517,29 @@
         <v>49</v>
       </c>
       <c r="C15" s="36">
-        <v>567.588913</v>
+        <v>563.080651</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="37">
-        <v>518.770225</v>
+        <v>514.355172</v>
       </c>
       <c r="F15" s="38">
         <f t="shared" si="1"/>
-        <v>0.0860106441155944</v>
+        <v>0.0865337477206262</v>
       </c>
       <c r="G15" s="39"/>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
       <c r="J15" s="65"/>
       <c r="K15" s="40">
-        <v>93.098771</v>
+        <v>92.359304</v>
       </c>
       <c r="L15" s="40">
-        <v>84.673857</v>
+        <v>83.964115</v>
       </c>
       <c r="M15" s="66">
         <f t="shared" si="2"/>
-        <v>0.0904943632392312</v>
+        <v>0.0908970578643597</v>
       </c>
       <c r="N15" s="37"/>
       <c r="O15" s="37"/>
@@ -3553,15 +3553,15 @@
       </c>
       <c r="V15" s="82">
         <f>F38</f>
-        <v>0.117097636753174</v>
+        <v>0.118118784310459</v>
       </c>
       <c r="W15" s="82">
         <f>F39</f>
-        <v>0.0829715787929926</v>
+        <v>0.0837610559986001</v>
       </c>
       <c r="X15" s="83">
         <f>F40</f>
-        <v>0.0642477080906894</v>
+        <v>0.0648870697326452</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -3570,29 +3570,29 @@
         <v>50</v>
       </c>
       <c r="C16" s="36">
-        <v>730.197831</v>
+        <v>724.175911</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37">
-        <v>681.379143</v>
+        <v>675.450433</v>
       </c>
       <c r="F16" s="38">
         <f t="shared" si="1"/>
-        <v>0.0668567967849797</v>
+        <v>0.0672840359087836</v>
       </c>
       <c r="G16" s="39"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
       <c r="J16" s="65"/>
       <c r="K16" s="40">
-        <v>119.770699</v>
+        <v>118.782954</v>
       </c>
       <c r="L16" s="40">
-        <v>111.048476</v>
+        <v>110.095745</v>
       </c>
       <c r="M16" s="66">
         <f t="shared" si="2"/>
-        <v>0.072824347464149</v>
+        <v>0.0731351486678805</v>
       </c>
       <c r="N16" s="37"/>
       <c r="O16" s="37"/>
@@ -3608,15 +3608,15 @@
       </c>
       <c r="V16" s="82">
         <f>F17</f>
-        <v>0.19523895679036</v>
+        <v>0.196858626897629</v>
       </c>
       <c r="W16" s="82">
         <f>F18</f>
-        <v>0.138767423900283</v>
+        <v>0.140191390234223</v>
       </c>
       <c r="X16" s="83">
         <f>F19</f>
-        <v>0.107634796883143</v>
+        <v>0.108856290070155</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -3627,17 +3627,17 @@
         <v>48</v>
       </c>
       <c r="C17" s="43">
-        <v>394.973689</v>
+        <v>389.736768</v>
       </c>
       <c r="D17" s="44">
-        <v>77.114251</v>
+        <v>76.723045</v>
       </c>
       <c r="E17" s="44">
-        <v>317.859438</v>
+        <v>313.013723</v>
       </c>
       <c r="F17" s="45">
         <f t="shared" si="1"/>
-        <v>0.19523895679036</v>
+        <v>0.196858626897629</v>
       </c>
       <c r="G17" s="46">
         <v>3175</v>
@@ -3646,24 +3646,24 @@
         <v>3371.266297</v>
       </c>
       <c r="I17" s="47">
-        <v>3097.885749</v>
+        <v>3098.276955</v>
       </c>
       <c r="J17" s="67">
         <f t="shared" si="0"/>
-        <v>0.0242879530708661</v>
+        <v>0.0241647385826772</v>
       </c>
       <c r="K17" s="47">
-        <v>64.785559</v>
+        <v>63.926573</v>
       </c>
       <c r="L17" s="47">
-        <v>51.863806</v>
+        <v>51.094192</v>
       </c>
       <c r="M17" s="68">
         <f t="shared" si="2"/>
-        <v>0.199454217875931</v>
+        <v>0.200736257205591</v>
       </c>
       <c r="N17" s="69">
-        <v>12.648665</v>
+        <v>12.584497</v>
       </c>
       <c r="O17" s="69">
         <v>8.237033</v>
@@ -3685,15 +3685,15 @@
       </c>
       <c r="V17" s="82">
         <f>F29</f>
-        <v>0.234611676084082</v>
+        <v>0.236550410225778</v>
       </c>
       <c r="W17" s="82">
         <f>F30</f>
-        <v>0.172216824366053</v>
+        <v>0.174032132106596</v>
       </c>
       <c r="X17" s="83">
         <f>F31</f>
-        <v>0.136037677234995</v>
+        <v>0.137651897145912</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -3702,29 +3702,29 @@
         <v>49</v>
       </c>
       <c r="C18" s="43">
-        <v>555.708601</v>
+        <v>547.273587</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="44">
-        <v>478.59435</v>
+        <v>470.550542</v>
       </c>
       <c r="F18" s="48">
         <f t="shared" si="1"/>
-        <v>0.138767423900283</v>
+        <v>0.140191390234223</v>
       </c>
       <c r="G18" s="46"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="J18" s="67"/>
       <c r="K18" s="47">
-        <v>91.150103</v>
+        <v>89.76655</v>
       </c>
       <c r="L18" s="47">
-        <v>77.742831</v>
+        <v>76.466836</v>
       </c>
       <c r="M18" s="70">
         <f t="shared" si="2"/>
-        <v>0.147090036749602</v>
+        <v>0.148158907744589</v>
       </c>
       <c r="N18" s="44"/>
       <c r="O18" s="44"/>
@@ -3738,15 +3738,15 @@
       </c>
       <c r="V18" s="87">
         <f>F41</f>
-        <v>0.191752468903442</v>
+        <v>0.19439371524307</v>
       </c>
       <c r="W18" s="87">
         <f>F42</f>
-        <v>0.134547909970094</v>
+        <v>0.136794765945933</v>
       </c>
       <c r="X18" s="88">
         <f>F43</f>
-        <v>0.103631914685213</v>
+        <v>0.105527050494084</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3755,29 +3755,29 @@
         <v>50</v>
       </c>
       <c r="C19" s="51">
-        <v>716.443513</v>
+        <v>704.810406</v>
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="52">
-        <v>639.329261</v>
+        <v>628.08736</v>
       </c>
       <c r="F19" s="53">
         <f t="shared" si="1"/>
-        <v>0.107634796883143</v>
+        <v>0.108856290070155</v>
       </c>
       <c r="G19" s="54"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
       <c r="J19" s="71"/>
       <c r="K19" s="52">
-        <v>117.514647</v>
+        <v>115.606527</v>
       </c>
       <c r="L19" s="52">
-        <v>103.621856</v>
+        <v>101.83948</v>
       </c>
       <c r="M19" s="72">
         <f t="shared" si="2"/>
-        <v>0.118221782174949</v>
+        <v>0.119085378284913</v>
       </c>
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
@@ -3939,17 +3939,17 @@
         <v>48</v>
       </c>
       <c r="C26" s="27">
-        <v>271.24277</v>
+        <v>269.272137</v>
       </c>
       <c r="D26" s="28">
-        <v>41.728938</v>
+        <v>41.666395</v>
       </c>
       <c r="E26" s="28">
-        <v>229.513832</v>
+        <v>227.605742</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ref="F26:F31" si="3">(C26-E26)/C26</f>
-        <v>0.15384350336785</v>
+        <v>0.15473712009052</v>
       </c>
       <c r="G26" s="27">
         <v>2404</v>
@@ -3958,24 +3958,24 @@
         <v>2612.965739</v>
       </c>
       <c r="I26" s="28">
-        <v>2362.271062</v>
+        <v>2362.333605</v>
       </c>
       <c r="J26" s="62">
         <f>(G26-I26)/G26</f>
-        <v>0.0173581272878537</v>
+        <v>0.0173321110648919</v>
       </c>
       <c r="K26" s="28">
-        <v>44.490595</v>
+        <v>44.167362</v>
       </c>
       <c r="L26" s="28">
-        <v>37.678328</v>
+        <v>37.371993</v>
       </c>
       <c r="M26" s="62">
         <f t="shared" ref="M26:M31" si="4">(K26-L26)/K26</f>
-        <v>0.153117012707967</v>
+        <v>0.153854989120699</v>
       </c>
       <c r="N26" s="63">
-        <v>6.844589</v>
+        <v>6.834331</v>
       </c>
       <c r="O26" s="63">
         <v>20.936475</v>
@@ -3997,29 +3997,29 @@
         <v>49</v>
       </c>
       <c r="C27" s="36">
-        <v>373.596592</v>
+        <v>370.628415</v>
       </c>
       <c r="D27" s="37"/>
       <c r="E27" s="37">
-        <v>331.867654</v>
+        <v>328.962019</v>
       </c>
       <c r="F27" s="38">
         <f t="shared" si="3"/>
-        <v>0.111695178418544</v>
+        <v>0.112420943224226</v>
       </c>
       <c r="G27" s="39"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
       <c r="J27" s="73"/>
       <c r="K27" s="40">
-        <v>61.279181</v>
+        <v>60.792326</v>
       </c>
       <c r="L27" s="40">
-        <v>54.153523</v>
+        <v>53.687569</v>
       </c>
       <c r="M27" s="66">
         <f t="shared" si="4"/>
-        <v>0.116281873936925</v>
+        <v>0.116869306826654</v>
       </c>
       <c r="N27" s="37"/>
       <c r="O27" s="37"/>
@@ -4033,29 +4033,29 @@
         <v>50</v>
       </c>
       <c r="C28" s="36">
-        <v>475.950413</v>
+        <v>471.984692</v>
       </c>
       <c r="D28" s="37"/>
       <c r="E28" s="37">
-        <v>434.221476</v>
+        <v>430.318297</v>
       </c>
       <c r="F28" s="38">
         <f t="shared" si="3"/>
-        <v>0.0876749675180974</v>
+        <v>0.0882791236797146</v>
       </c>
       <c r="G28" s="39"/>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
       <c r="J28" s="73"/>
       <c r="K28" s="40">
-        <v>78.067767</v>
+        <v>77.417289</v>
       </c>
       <c r="L28" s="40">
-        <v>70.628718</v>
+        <v>70.003145</v>
       </c>
       <c r="M28" s="66">
         <f t="shared" si="4"/>
-        <v>0.0952896347092904</v>
+        <v>0.09576858213157</v>
       </c>
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
@@ -4071,17 +4071,17 @@
         <v>48</v>
       </c>
       <c r="C29" s="43">
-        <v>284.14732</v>
+        <v>280.707372</v>
       </c>
       <c r="D29" s="44">
-        <v>66.664278</v>
+        <v>66.401444</v>
       </c>
       <c r="E29" s="44">
-        <v>217.483041</v>
+        <v>214.305928</v>
       </c>
       <c r="F29" s="45">
         <f t="shared" si="3"/>
-        <v>0.234611676084082</v>
+        <v>0.236550410225778</v>
       </c>
       <c r="G29" s="46">
         <v>2404</v>
@@ -4090,24 +4090,24 @@
         <v>2613.424389</v>
       </c>
       <c r="I29" s="47">
-        <v>2337.335722</v>
+        <v>2337.598556</v>
       </c>
       <c r="J29" s="67">
         <f>(G29-I29)/G29</f>
-        <v>0.027730564891847</v>
+        <v>0.0276212329450915</v>
       </c>
       <c r="K29" s="47">
-        <v>46.607264</v>
+        <v>46.043027</v>
       </c>
       <c r="L29" s="47">
-        <v>35.646334</v>
+        <v>35.143465</v>
       </c>
       <c r="M29" s="68">
         <f t="shared" si="4"/>
-        <v>0.235176430867085</v>
+        <v>0.236725574102676</v>
       </c>
       <c r="N29" s="69">
-        <v>10.934608</v>
+        <v>10.891497</v>
       </c>
       <c r="O29" s="69">
         <v>21.395125</v>
@@ -4129,29 +4129,29 @@
         <v>49</v>
       </c>
       <c r="C30" s="43">
-        <v>387.095037</v>
+        <v>381.547035</v>
       </c>
       <c r="D30" s="44"/>
       <c r="E30" s="44">
-        <v>320.430759</v>
+        <v>315.145591</v>
       </c>
       <c r="F30" s="48">
         <f t="shared" si="3"/>
-        <v>0.172216824366053</v>
+        <v>0.174032132106596</v>
       </c>
       <c r="G30" s="46"/>
       <c r="H30" s="47"/>
       <c r="I30" s="47"/>
       <c r="J30" s="74"/>
       <c r="K30" s="47">
-        <v>63.493263</v>
+        <v>62.583252</v>
       </c>
       <c r="L30" s="47">
-        <v>52.013465</v>
+        <v>51.178775</v>
       </c>
       <c r="M30" s="70">
         <f t="shared" si="4"/>
-        <v>0.180803402716915</v>
+        <v>0.182228897277502</v>
       </c>
       <c r="N30" s="44"/>
       <c r="O30" s="44"/>
@@ -4165,29 +4165,29 @@
         <v>50</v>
       </c>
       <c r="C31" s="51">
-        <v>490.042754</v>
+        <v>482.386697</v>
       </c>
       <c r="D31" s="52"/>
       <c r="E31" s="52">
-        <v>423.378476</v>
+        <v>415.985253</v>
       </c>
       <c r="F31" s="53">
         <f t="shared" si="3"/>
-        <v>0.136037677234995</v>
+        <v>0.137651897145912</v>
       </c>
       <c r="G31" s="54"/>
       <c r="H31" s="52"/>
       <c r="I31" s="52"/>
       <c r="J31" s="75"/>
       <c r="K31" s="52">
-        <v>80.379263</v>
+        <v>79.123478</v>
       </c>
       <c r="L31" s="52">
-        <v>68.380596</v>
+        <v>67.214085</v>
       </c>
       <c r="M31" s="72">
         <f t="shared" si="4"/>
-        <v>0.149275653348551</v>
+        <v>0.150516550852327</v>
       </c>
       <c r="N31" s="52"/>
       <c r="O31" s="52"/>
@@ -4337,17 +4337,17 @@
         <v>48</v>
       </c>
       <c r="C38" s="27">
-        <v>443.464808</v>
+        <v>438.831743</v>
       </c>
       <c r="D38" s="28">
-        <v>51.928681</v>
+        <v>51.834272</v>
       </c>
       <c r="E38" s="28">
-        <v>391.536127</v>
+        <v>386.997471</v>
       </c>
       <c r="F38" s="29">
         <f t="shared" ref="F38:F43" si="5">(C38-E38)/C38</f>
-        <v>0.117097636753174</v>
+        <v>0.118118784310459</v>
       </c>
       <c r="G38" s="27">
         <v>3350</v>
@@ -4356,24 +4356,24 @@
         <v>3560.142502</v>
       </c>
       <c r="I38" s="28">
-        <v>3298.071319</v>
+        <v>3298.165728</v>
       </c>
       <c r="J38" s="62">
         <f>(G38-I38)/G38</f>
-        <v>0.0155010988059701</v>
+        <v>0.0154729170149254</v>
       </c>
       <c r="K38" s="28">
-        <v>72.739315</v>
+        <v>71.979377</v>
       </c>
       <c r="L38" s="28">
-        <v>63.984508</v>
+        <v>63.253652</v>
       </c>
       <c r="M38" s="62">
         <f t="shared" ref="M38:M43" si="6">(K38-L38)/K38</f>
-        <v>0.120358667111451</v>
+        <v>0.121225347643673</v>
       </c>
       <c r="N38" s="63">
-        <v>8.517602</v>
+        <v>8.502117</v>
       </c>
       <c r="O38" s="63">
         <v>22.113238</v>
@@ -4395,29 +4395,29 @@
         <v>49</v>
       </c>
       <c r="C39" s="36">
-        <v>625.861069</v>
+        <v>618.834987</v>
       </c>
       <c r="D39" s="37"/>
       <c r="E39" s="37">
-        <v>573.932388</v>
+        <v>567.000715</v>
       </c>
       <c r="F39" s="38">
         <f t="shared" si="5"/>
-        <v>0.0829715787929926</v>
+        <v>0.0837610559986001</v>
       </c>
       <c r="G39" s="39"/>
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
       <c r="J39" s="73"/>
       <c r="K39" s="40">
-        <v>102.656862</v>
+        <v>101.504409</v>
       </c>
       <c r="L39" s="40">
-        <v>93.516953</v>
+        <v>92.4013</v>
       </c>
       <c r="M39" s="66">
         <f t="shared" si="6"/>
-        <v>0.089033590370218</v>
+        <v>0.0896819073149817</v>
       </c>
       <c r="N39" s="37"/>
       <c r="O39" s="37"/>
@@ -4431,29 +4431,29 @@
         <v>50</v>
       </c>
       <c r="C40" s="36">
-        <v>808.25733</v>
+        <v>798.838231</v>
       </c>
       <c r="D40" s="37"/>
       <c r="E40" s="37">
-        <v>756.328649</v>
+        <v>747.003959</v>
       </c>
       <c r="F40" s="38">
         <f t="shared" si="5"/>
-        <v>0.0642477080906894</v>
+        <v>0.0648870697326452</v>
       </c>
       <c r="G40" s="39"/>
       <c r="H40" s="40"/>
       <c r="I40" s="40"/>
       <c r="J40" s="73"/>
       <c r="K40" s="40">
-        <v>132.574409</v>
+        <v>131.029441</v>
       </c>
       <c r="L40" s="40">
-        <v>123.049398</v>
+        <v>121.548948</v>
       </c>
       <c r="M40" s="66">
         <f t="shared" si="6"/>
-        <v>0.0718465280882376</v>
+        <v>0.0723539147205856</v>
       </c>
       <c r="N40" s="37"/>
       <c r="O40" s="37"/>
@@ -4469,17 +4469,17 @@
         <v>48</v>
       </c>
       <c r="C41" s="43">
-        <v>426.287935</v>
+        <v>418.456661</v>
       </c>
       <c r="D41" s="44">
-        <v>81.741764</v>
+        <v>81.345346</v>
       </c>
       <c r="E41" s="44">
-        <v>344.546171</v>
+        <v>337.111316</v>
       </c>
       <c r="F41" s="45">
         <f t="shared" si="5"/>
-        <v>0.191752468903442</v>
+        <v>0.19439371524307</v>
       </c>
       <c r="G41" s="46">
         <v>3350</v>
@@ -4488,24 +4488,24 @@
         <v>3560.627418</v>
       </c>
       <c r="I41" s="47">
-        <v>3268.258236</v>
+        <v>3268.654654</v>
       </c>
       <c r="J41" s="67">
         <f>(G41-I41)/G41</f>
-        <v>0.0244005265671641</v>
+        <v>0.0242821928358209</v>
       </c>
       <c r="K41" s="47">
-        <v>69.921879</v>
+        <v>68.637354</v>
       </c>
       <c r="L41" s="47">
-        <v>56.117239</v>
+        <v>54.93389</v>
       </c>
       <c r="M41" s="68">
         <f t="shared" si="6"/>
-        <v>0.197429476973867</v>
+        <v>0.199650237099758</v>
       </c>
       <c r="N41" s="69">
-        <v>13.407693</v>
+        <v>13.34267</v>
       </c>
       <c r="O41" s="69">
         <v>22.598154</v>
@@ -4527,29 +4527,29 @@
         <v>49</v>
       </c>
       <c r="C42" s="43">
-        <v>607.529058</v>
+        <v>594.652474</v>
       </c>
       <c r="D42" s="44"/>
       <c r="E42" s="44">
-        <v>525.787293</v>
+        <v>513.307128</v>
       </c>
       <c r="F42" s="48">
         <f t="shared" si="5"/>
-        <v>0.134547909970094</v>
+        <v>0.136794765945933</v>
       </c>
       <c r="G42" s="46"/>
       <c r="H42" s="47"/>
       <c r="I42" s="47"/>
       <c r="J42" s="74"/>
       <c r="K42" s="47">
-        <v>99.649954</v>
+        <v>97.537872</v>
       </c>
       <c r="L42" s="47">
-        <v>85.22097</v>
+        <v>83.236335</v>
       </c>
       <c r="M42" s="70">
         <f t="shared" si="6"/>
-        <v>0.144796695039117</v>
+        <v>0.146625476922441</v>
       </c>
       <c r="N42" s="44"/>
       <c r="O42" s="44"/>
@@ -4563,29 +4563,29 @@
         <v>50</v>
       </c>
       <c r="C43" s="51">
-        <v>788.77018</v>
+        <v>770.848286</v>
       </c>
       <c r="D43" s="52"/>
       <c r="E43" s="52">
-        <v>707.028416</v>
+        <v>689.50294</v>
       </c>
       <c r="F43" s="53">
         <f t="shared" si="5"/>
-        <v>0.103631914685213</v>
+        <v>0.105527050494084</v>
       </c>
       <c r="G43" s="54"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="75"/>
       <c r="K43" s="52">
-        <v>129.378029</v>
+        <v>126.43839</v>
       </c>
       <c r="L43" s="52">
-        <v>114.3247</v>
+        <v>111.53878</v>
       </c>
       <c r="M43" s="72">
         <f t="shared" si="6"/>
-        <v>0.116351509729677</v>
+        <v>0.117840870956993</v>
       </c>
       <c r="N43" s="52"/>
       <c r="O43" s="52"/>

--- a/analysis/cfg-case-study/result-summary/abu-analysis/detach_after_accelerate_climb_1500_3000_ft.xlsx
+++ b/analysis/cfg-case-study/result-summary/abu-analysis/detach_after_accelerate_climb_1500_3000_ft.xlsx
@@ -1594,22 +1594,22 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.121212064448412</c:v>
+                  <c:v>0.12368011829891</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15473712009052</c:v>
+                  <c:v>0.157054857265717</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.118118784310459</c:v>
+                  <c:v>0.119719173248267</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.196858626897629</c:v>
+                  <c:v>0.19938052366389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.236550410225778</c:v>
+                  <c:v>0.238755374536582</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19439371524307</c:v>
+                  <c:v>0.196055581651222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1738,22 +1738,22 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0865337477206262</c:v>
+                  <c:v>0.0883010366681257</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.112420943224226</c:v>
+                  <c:v>0.114110957787073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0837610559986001</c:v>
+                  <c:v>0.0848994565438727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.140191390234223</c:v>
+                  <c:v>0.141991791163202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.174032132106596</c:v>
+                  <c:v>0.175658701115804</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.136794765945933</c:v>
+                  <c:v>0.137967276578267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,22 +1882,22 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0672840359087836</c:v>
+                  <c:v>0.0686604902500354</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0882791236797146</c:v>
+                  <c:v>0.0896089548353711</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0648870697326452</c:v>
+                  <c:v>0.065770452665818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.108856290070155</c:v>
+                  <c:v>0.110256181527091</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.137651897145912</c:v>
+                  <c:v>0.138940449589483</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.105527050494084</c:v>
+                  <c:v>0.106432836304391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3110,8 +3110,8 @@
   <sheetPr/>
   <dimension ref="A1:X43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AK4" sqref="AK4"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="S54" sqref="S54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3362,17 +3362,17 @@
         <v>48</v>
       </c>
       <c r="C13" s="27">
-        <v>401.98539</v>
+        <v>402.070314</v>
       </c>
       <c r="D13" s="28">
-        <v>48.725479</v>
+        <v>49.728104</v>
       </c>
       <c r="E13" s="28">
-        <v>353.259911</v>
+        <v>352.342209</v>
       </c>
       <c r="F13" s="29">
         <f>(C13-E13)/C13</f>
-        <v>0.121212064448412</v>
+        <v>0.123680120786037</v>
       </c>
       <c r="G13" s="27">
         <v>3175</v>
@@ -3381,24 +3381,24 @@
         <v>3371.090089</v>
       </c>
       <c r="I13" s="28">
-        <v>3126.274521</v>
+        <v>3125.271896</v>
       </c>
       <c r="J13" s="62">
         <f t="shared" ref="J13:J17" si="0">(G13-I13)/G13</f>
-        <v>0.0153466075590552</v>
+        <v>0.0156623949606299</v>
       </c>
       <c r="K13" s="28">
-        <v>65.935654</v>
+        <v>65.949583</v>
       </c>
       <c r="L13" s="28">
-        <v>57.832485</v>
+        <v>57.684584</v>
       </c>
       <c r="M13" s="62">
         <f>(K13-L13)/K13</f>
-        <v>0.122895103156177</v>
+        <v>0.125322991049087</v>
       </c>
       <c r="N13" s="63">
-        <v>7.992197</v>
+        <v>8.156652</v>
       </c>
       <c r="O13" s="63">
         <v>8.060826</v>
@@ -3422,15 +3422,15 @@
       </c>
       <c r="V13" s="82">
         <f>F14</f>
-        <v>0.121212064448412</v>
+        <v>0.12368011829891</v>
       </c>
       <c r="W13" s="82">
         <f>F15</f>
-        <v>0.0865337477206262</v>
+        <v>0.0883010366681257</v>
       </c>
       <c r="X13" s="83">
         <f>F16</f>
-        <v>0.0672840359087836</v>
+        <v>0.0686604902500354</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -3439,18 +3439,18 @@
         <v>53</v>
       </c>
       <c r="C14" s="31">
-        <v>401.98539</v>
+        <v>402.070314</v>
       </c>
       <c r="D14" s="32">
-        <v>48.725479</v>
+        <v>49.728104</v>
       </c>
       <c r="E14" s="32">
         <f>C14-D14</f>
-        <v>353.259911</v>
+        <v>352.34221</v>
       </c>
       <c r="F14" s="33">
         <f t="shared" ref="F14:F19" si="1">(C14-E14)/C14</f>
-        <v>0.121212064448412</v>
+        <v>0.12368011829891</v>
       </c>
       <c r="G14" s="34">
         <v>3175</v>
@@ -3461,24 +3461,24 @@
       </c>
       <c r="I14" s="35">
         <f>H14-R14-C14+E14</f>
-        <v>3126.274521</v>
+        <v>3125.271896</v>
       </c>
       <c r="J14" s="64">
         <f t="shared" si="0"/>
-        <v>0.015346607559055</v>
+        <v>0.0156623949606299</v>
       </c>
       <c r="K14" s="35">
-        <v>65.935654</v>
+        <v>65.949583</v>
       </c>
       <c r="L14" s="35">
-        <v>57.832485</v>
+        <v>57.684584</v>
       </c>
       <c r="M14" s="64">
         <f t="shared" ref="M14:M19" si="2">(K14-L14)/K14</f>
-        <v>0.122895103156177</v>
+        <v>0.125322991049087</v>
       </c>
       <c r="N14" s="32">
-        <v>7.992197</v>
+        <v>8.156652</v>
       </c>
       <c r="O14" s="32">
         <v>8.060826</v>
@@ -3500,15 +3500,15 @@
       </c>
       <c r="V14" s="82">
         <f>F26</f>
-        <v>0.15473712009052</v>
+        <v>0.157054857265717</v>
       </c>
       <c r="W14" s="82">
         <f>F27</f>
-        <v>0.112420943224226</v>
+        <v>0.114110957787073</v>
       </c>
       <c r="X14" s="83">
         <f>F28</f>
-        <v>0.0882791236797146</v>
+        <v>0.0896089548353711</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -3517,29 +3517,29 @@
         <v>49</v>
       </c>
       <c r="C15" s="36">
-        <v>563.080651</v>
+        <v>563.165574</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="37">
-        <v>514.355172</v>
+        <v>513.43747</v>
       </c>
       <c r="F15" s="38">
         <f t="shared" si="1"/>
-        <v>0.0865337477206262</v>
+        <v>0.0883010366681257</v>
       </c>
       <c r="G15" s="39"/>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
       <c r="J15" s="65"/>
       <c r="K15" s="40">
-        <v>92.359304</v>
+        <v>92.373233</v>
       </c>
       <c r="L15" s="40">
-        <v>83.964115</v>
+        <v>83.810242</v>
       </c>
       <c r="M15" s="66">
         <f t="shared" si="2"/>
-        <v>0.0908970578643597</v>
+        <v>0.0926999166522622</v>
       </c>
       <c r="N15" s="37"/>
       <c r="O15" s="37"/>
@@ -3553,15 +3553,15 @@
       </c>
       <c r="V15" s="82">
         <f>F38</f>
-        <v>0.118118784310459</v>
+        <v>0.119719173248267</v>
       </c>
       <c r="W15" s="82">
         <f>F39</f>
-        <v>0.0837610559986001</v>
+        <v>0.0848994565438727</v>
       </c>
       <c r="X15" s="83">
         <f>F40</f>
-        <v>0.0648870697326452</v>
+        <v>0.065770452665818</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -3570,29 +3570,29 @@
         <v>50</v>
       </c>
       <c r="C16" s="36">
-        <v>724.175911</v>
+        <v>724.260835</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37">
-        <v>675.450433</v>
+        <v>674.532731</v>
       </c>
       <c r="F16" s="38">
         <f t="shared" si="1"/>
-        <v>0.0672840359087836</v>
+        <v>0.0686604902500354</v>
       </c>
       <c r="G16" s="39"/>
       <c r="H16" s="40"/>
       <c r="I16" s="40"/>
       <c r="J16" s="65"/>
       <c r="K16" s="40">
-        <v>118.782954</v>
+        <v>118.796883</v>
       </c>
       <c r="L16" s="40">
-        <v>110.095745</v>
+        <v>109.935899</v>
       </c>
       <c r="M16" s="66">
         <f t="shared" si="2"/>
-        <v>0.0731351486678805</v>
+        <v>0.0745893644364389</v>
       </c>
       <c r="N16" s="37"/>
       <c r="O16" s="37"/>
@@ -3608,15 +3608,15 @@
       </c>
       <c r="V16" s="82">
         <f>F17</f>
-        <v>0.196858626897629</v>
+        <v>0.19938052366389</v>
       </c>
       <c r="W16" s="82">
         <f>F18</f>
-        <v>0.140191390234223</v>
+        <v>0.141991791163202</v>
       </c>
       <c r="X16" s="83">
         <f>F19</f>
-        <v>0.108856290070155</v>
+        <v>0.110256181527091</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -3627,17 +3627,17 @@
         <v>48</v>
       </c>
       <c r="C17" s="43">
-        <v>389.736768</v>
+        <v>389.779215</v>
       </c>
       <c r="D17" s="44">
-        <v>76.723045</v>
+        <v>77.714384</v>
       </c>
       <c r="E17" s="44">
-        <v>313.013723</v>
+        <v>312.064831</v>
       </c>
       <c r="F17" s="45">
         <f t="shared" si="1"/>
-        <v>0.196858626897629</v>
+        <v>0.19938052366389</v>
       </c>
       <c r="G17" s="46">
         <v>3175</v>
@@ -3646,24 +3646,24 @@
         <v>3371.266297</v>
       </c>
       <c r="I17" s="47">
-        <v>3098.276955</v>
+        <v>3097.285616</v>
       </c>
       <c r="J17" s="67">
         <f t="shared" si="0"/>
-        <v>0.0241647385826772</v>
+        <v>0.0244769713385826</v>
       </c>
       <c r="K17" s="47">
-        <v>63.926573</v>
+        <v>63.933536</v>
       </c>
       <c r="L17" s="47">
-        <v>51.094192</v>
+        <v>50.941731</v>
       </c>
       <c r="M17" s="68">
         <f t="shared" si="2"/>
-        <v>0.200736257205591</v>
+        <v>0.203207984617025</v>
       </c>
       <c r="N17" s="69">
-        <v>12.584497</v>
+        <v>12.747102</v>
       </c>
       <c r="O17" s="69">
         <v>8.237033</v>
@@ -3685,15 +3685,15 @@
       </c>
       <c r="V17" s="82">
         <f>F29</f>
-        <v>0.236550410225778</v>
+        <v>0.238755374536582</v>
       </c>
       <c r="W17" s="82">
         <f>F30</f>
-        <v>0.174032132106596</v>
+        <v>0.175658701115804</v>
       </c>
       <c r="X17" s="83">
         <f>F31</f>
-        <v>0.137651897145912</v>
+        <v>0.138940449589483</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -3702,29 +3702,29 @@
         <v>49</v>
       </c>
       <c r="C18" s="43">
-        <v>547.273587</v>
+        <v>547.316034</v>
       </c>
       <c r="D18" s="44"/>
       <c r="E18" s="44">
-        <v>470.550542</v>
+        <v>469.60165</v>
       </c>
       <c r="F18" s="48">
         <f t="shared" si="1"/>
-        <v>0.140191390234223</v>
+        <v>0.141991791163202</v>
       </c>
       <c r="G18" s="46"/>
       <c r="H18" s="47"/>
       <c r="I18" s="47"/>
       <c r="J18" s="67"/>
       <c r="K18" s="47">
-        <v>89.76655</v>
+        <v>89.773512</v>
       </c>
       <c r="L18" s="47">
-        <v>76.466836</v>
+        <v>76.308395</v>
       </c>
       <c r="M18" s="70">
         <f t="shared" si="2"/>
-        <v>0.148158907744589</v>
+        <v>0.149989865607575</v>
       </c>
       <c r="N18" s="44"/>
       <c r="O18" s="44"/>
@@ -3738,15 +3738,15 @@
       </c>
       <c r="V18" s="87">
         <f>F41</f>
-        <v>0.19439371524307</v>
+        <v>0.196055581651222</v>
       </c>
       <c r="W18" s="87">
         <f>F42</f>
-        <v>0.136794765945933</v>
+        <v>0.137967276578267</v>
       </c>
       <c r="X18" s="88">
         <f>F43</f>
-        <v>0.105527050494084</v>
+        <v>0.106432836304391</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3755,29 +3755,29 @@
         <v>50</v>
       </c>
       <c r="C19" s="51">
-        <v>704.810406</v>
+        <v>704.852852</v>
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="52">
-        <v>628.08736</v>
+        <v>627.138468</v>
       </c>
       <c r="F19" s="53">
         <f t="shared" si="1"/>
-        <v>0.108856290070155</v>
+        <v>0.110256181527091</v>
       </c>
       <c r="G19" s="54"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
       <c r="J19" s="71"/>
       <c r="K19" s="52">
-        <v>115.606527</v>
+        <v>115.613489</v>
       </c>
       <c r="L19" s="52">
-        <v>101.83948</v>
+        <v>101.675059</v>
       </c>
       <c r="M19" s="72">
         <f t="shared" si="2"/>
-        <v>0.119085378284913</v>
+        <v>0.120560586144061</v>
       </c>
       <c r="N19" s="52"/>
       <c r="O19" s="52"/>
@@ -3939,17 +3939,17 @@
         <v>48</v>
       </c>
       <c r="C26" s="27">
-        <v>269.272137</v>
+        <v>269.324889</v>
       </c>
       <c r="D26" s="28">
-        <v>41.666395</v>
+        <v>42.298782</v>
       </c>
       <c r="E26" s="28">
-        <v>227.605742</v>
+        <v>227.026107</v>
       </c>
       <c r="F26" s="29">
         <f t="shared" ref="F26:F31" si="3">(C26-E26)/C26</f>
-        <v>0.15473712009052</v>
+        <v>0.157054857265717</v>
       </c>
       <c r="G26" s="27">
         <v>2404</v>
@@ -3958,24 +3958,24 @@
         <v>2612.965739</v>
       </c>
       <c r="I26" s="28">
-        <v>2362.333605</v>
+        <v>2361.701218</v>
       </c>
       <c r="J26" s="62">
         <f>(G26-I26)/G26</f>
-        <v>0.0173321110648919</v>
+        <v>0.0175951672212978</v>
       </c>
       <c r="K26" s="28">
-        <v>44.167362</v>
+        <v>44.176015</v>
       </c>
       <c r="L26" s="28">
-        <v>37.371993</v>
+        <v>37.280371</v>
       </c>
       <c r="M26" s="62">
         <f t="shared" ref="M26:M31" si="4">(K26-L26)/K26</f>
-        <v>0.153854989120699</v>
+        <v>0.15609474960564</v>
       </c>
       <c r="N26" s="63">
-        <v>6.834331</v>
+        <v>6.938058</v>
       </c>
       <c r="O26" s="63">
         <v>20.936475</v>
@@ -3997,29 +3997,29 @@
         <v>49</v>
       </c>
       <c r="C27" s="36">
-        <v>370.628415</v>
+        <v>370.681167</v>
       </c>
       <c r="D27" s="37"/>
       <c r="E27" s="37">
-        <v>328.962019</v>
+        <v>328.382384</v>
       </c>
       <c r="F27" s="38">
         <f t="shared" si="3"/>
-        <v>0.112420943224226</v>
+        <v>0.114110957787073</v>
       </c>
       <c r="G27" s="39"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
       <c r="J27" s="73"/>
       <c r="K27" s="40">
-        <v>60.792326</v>
+        <v>60.800978</v>
       </c>
       <c r="L27" s="40">
-        <v>53.687569</v>
+        <v>53.591286</v>
       </c>
       <c r="M27" s="66">
         <f t="shared" si="4"/>
-        <v>0.116869306826654</v>
+        <v>0.118578553127879</v>
       </c>
       <c r="N27" s="37"/>
       <c r="O27" s="37"/>
@@ -4033,29 +4033,29 @@
         <v>50</v>
       </c>
       <c r="C28" s="36">
-        <v>471.984692</v>
+        <v>472.037444</v>
       </c>
       <c r="D28" s="37"/>
       <c r="E28" s="37">
-        <v>430.318297</v>
+        <v>429.738662</v>
       </c>
       <c r="F28" s="38">
         <f t="shared" si="3"/>
-        <v>0.0882791236797146</v>
+        <v>0.0896089548353711</v>
       </c>
       <c r="G28" s="39"/>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
       <c r="J28" s="73"/>
       <c r="K28" s="40">
-        <v>77.417289</v>
+        <v>77.425942</v>
       </c>
       <c r="L28" s="40">
-        <v>70.003145</v>
+        <v>69.902201</v>
       </c>
       <c r="M28" s="66">
         <f t="shared" si="4"/>
-        <v>0.09576858213157</v>
+        <v>0.0971733866667066</v>
       </c>
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
@@ -4071,17 +4071,17 @@
         <v>48</v>
       </c>
       <c r="C29" s="43">
-        <v>280.707372</v>
+        <v>280.733739</v>
       </c>
       <c r="D29" s="44">
-        <v>66.401444</v>
+        <v>67.026688</v>
       </c>
       <c r="E29" s="44">
-        <v>214.305928</v>
+        <v>213.70705</v>
       </c>
       <c r="F29" s="45">
         <f t="shared" si="3"/>
-        <v>0.236550410225778</v>
+        <v>0.238755374536582</v>
       </c>
       <c r="G29" s="46">
         <v>2404</v>
@@ -4090,24 +4090,24 @@
         <v>2613.424389</v>
       </c>
       <c r="I29" s="47">
-        <v>2337.598556</v>
+        <v>2336.973312</v>
       </c>
       <c r="J29" s="67">
         <f>(G29-I29)/G29</f>
-        <v>0.0276212329450915</v>
+        <v>0.0278813178036605</v>
       </c>
       <c r="K29" s="47">
-        <v>46.043027</v>
+        <v>46.047351</v>
       </c>
       <c r="L29" s="47">
-        <v>35.143465</v>
+        <v>35.048931</v>
       </c>
       <c r="M29" s="68">
         <f t="shared" si="4"/>
-        <v>0.236725574102676</v>
+        <v>0.238850221807548</v>
       </c>
       <c r="N29" s="69">
-        <v>10.891497</v>
+        <v>10.994053</v>
       </c>
       <c r="O29" s="69">
         <v>21.395125</v>
@@ -4129,29 +4129,29 @@
         <v>49</v>
       </c>
       <c r="C30" s="43">
-        <v>381.547035</v>
+        <v>381.573401</v>
       </c>
       <c r="D30" s="44"/>
       <c r="E30" s="44">
-        <v>315.145591</v>
+        <v>314.546713</v>
       </c>
       <c r="F30" s="48">
         <f t="shared" si="3"/>
-        <v>0.174032132106596</v>
+        <v>0.175658701115804</v>
       </c>
       <c r="G30" s="46"/>
       <c r="H30" s="47"/>
       <c r="I30" s="47"/>
       <c r="J30" s="74"/>
       <c r="K30" s="47">
-        <v>62.583252</v>
+        <v>62.587577</v>
       </c>
       <c r="L30" s="47">
-        <v>51.178775</v>
+        <v>51.079544</v>
       </c>
       <c r="M30" s="70">
         <f t="shared" si="4"/>
-        <v>0.182228897277502</v>
+        <v>0.183870882235943</v>
       </c>
       <c r="N30" s="44"/>
       <c r="O30" s="44"/>
@@ -4165,29 +4165,29 @@
         <v>50</v>
       </c>
       <c r="C31" s="51">
-        <v>482.386697</v>
+        <v>482.413064</v>
       </c>
       <c r="D31" s="52"/>
       <c r="E31" s="52">
-        <v>415.985253</v>
+        <v>415.386376</v>
       </c>
       <c r="F31" s="53">
         <f t="shared" si="3"/>
-        <v>0.137651897145912</v>
+        <v>0.138940449589483</v>
       </c>
       <c r="G31" s="54"/>
       <c r="H31" s="52"/>
       <c r="I31" s="52"/>
       <c r="J31" s="75"/>
       <c r="K31" s="52">
-        <v>79.123478</v>
+        <v>79.127803</v>
       </c>
       <c r="L31" s="52">
-        <v>67.214085</v>
+        <v>67.110157</v>
       </c>
       <c r="M31" s="72">
         <f t="shared" si="4"/>
-        <v>0.150516550852327</v>
+        <v>0.151876401774987</v>
       </c>
       <c r="N31" s="52"/>
       <c r="O31" s="52"/>
@@ -4337,17 +4337,17 @@
         <v>48</v>
       </c>
       <c r="C38" s="27">
-        <v>438.831743</v>
+        <v>438.894369</v>
       </c>
       <c r="D38" s="28">
-        <v>51.834272</v>
+        <v>52.544071</v>
       </c>
       <c r="E38" s="28">
-        <v>386.997471</v>
+        <v>386.350298</v>
       </c>
       <c r="F38" s="29">
         <f t="shared" ref="F38:F43" si="5">(C38-E38)/C38</f>
-        <v>0.118118784310459</v>
+        <v>0.119719173248267</v>
       </c>
       <c r="G38" s="27">
         <v>3350</v>
@@ -4356,24 +4356,24 @@
         <v>3560.142502</v>
       </c>
       <c r="I38" s="28">
-        <v>3298.165728</v>
+        <v>3297.455929</v>
       </c>
       <c r="J38" s="62">
         <f>(G38-I38)/G38</f>
-        <v>0.0154729170149254</v>
+        <v>0.0156847973134328</v>
       </c>
       <c r="K38" s="28">
-        <v>71.979377</v>
+        <v>71.989649</v>
       </c>
       <c r="L38" s="28">
-        <v>63.253652</v>
+        <v>63.148274</v>
       </c>
       <c r="M38" s="62">
         <f t="shared" ref="M38:M43" si="6">(K38-L38)/K38</f>
-        <v>0.121225347643673</v>
+        <v>0.122814531294631</v>
       </c>
       <c r="N38" s="63">
-        <v>8.502117</v>
+        <v>8.618541</v>
       </c>
       <c r="O38" s="63">
         <v>22.113238</v>
@@ -4395,29 +4395,29 @@
         <v>49</v>
       </c>
       <c r="C39" s="36">
-        <v>618.834987</v>
+        <v>618.897613</v>
       </c>
       <c r="D39" s="37"/>
       <c r="E39" s="37">
-        <v>567.000715</v>
+        <v>566.353542</v>
       </c>
       <c r="F39" s="38">
         <f t="shared" si="5"/>
-        <v>0.0837610559986001</v>
+        <v>0.0848994565438727</v>
       </c>
       <c r="G39" s="39"/>
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
       <c r="J39" s="73"/>
       <c r="K39" s="40">
-        <v>101.504409</v>
+        <v>101.514681</v>
       </c>
       <c r="L39" s="40">
-        <v>92.4013</v>
+        <v>92.290783</v>
       </c>
       <c r="M39" s="66">
         <f t="shared" si="6"/>
-        <v>0.0896819073149817</v>
+        <v>0.0908626999478035</v>
       </c>
       <c r="N39" s="37"/>
       <c r="O39" s="37"/>
@@ -4431,29 +4431,29 @@
         <v>50</v>
       </c>
       <c r="C40" s="36">
-        <v>798.838231</v>
+        <v>798.900857</v>
       </c>
       <c r="D40" s="37"/>
       <c r="E40" s="37">
-        <v>747.003959</v>
+        <v>746.356786</v>
       </c>
       <c r="F40" s="38">
         <f t="shared" si="5"/>
-        <v>0.0648870697326452</v>
+        <v>0.065770452665818</v>
       </c>
       <c r="G40" s="39"/>
       <c r="H40" s="40"/>
       <c r="I40" s="40"/>
       <c r="J40" s="73"/>
       <c r="K40" s="40">
-        <v>131.029441</v>
+        <v>131.039713</v>
       </c>
       <c r="L40" s="40">
-        <v>121.548948</v>
+        <v>121.433291</v>
       </c>
       <c r="M40" s="66">
         <f t="shared" si="6"/>
-        <v>0.0723539147205856</v>
+        <v>0.0733092417563522</v>
       </c>
       <c r="N40" s="37"/>
       <c r="O40" s="37"/>
@@ -4469,17 +4469,17 @@
         <v>48</v>
       </c>
       <c r="C41" s="43">
-        <v>418.456661</v>
+        <v>418.487963</v>
       </c>
       <c r="D41" s="44">
-        <v>81.345346</v>
+        <v>82.046901</v>
       </c>
       <c r="E41" s="44">
-        <v>337.111316</v>
+        <v>336.441062</v>
       </c>
       <c r="F41" s="45">
         <f t="shared" si="5"/>
-        <v>0.19439371524307</v>
+        <v>0.196055581651222</v>
       </c>
       <c r="G41" s="46">
         <v>3350</v>
@@ -4488,24 +4488,24 @@
         <v>3560.627418</v>
       </c>
       <c r="I41" s="47">
-        <v>3268.654654</v>
+        <v>3267.953099</v>
       </c>
       <c r="J41" s="67">
         <f>(G41-I41)/G41</f>
-        <v>0.0242821928358209</v>
+        <v>0.024491612238806</v>
       </c>
       <c r="K41" s="47">
-        <v>68.637354</v>
+        <v>68.642488</v>
       </c>
       <c r="L41" s="47">
-        <v>54.93389</v>
+        <v>54.825773</v>
       </c>
       <c r="M41" s="68">
         <f t="shared" si="6"/>
-        <v>0.199650237099758</v>
+        <v>0.20128517194773</v>
       </c>
       <c r="N41" s="69">
-        <v>13.34267</v>
+        <v>13.457743</v>
       </c>
       <c r="O41" s="69">
         <v>22.598154</v>
@@ -4527,29 +4527,29 @@
         <v>49</v>
       </c>
       <c r="C42" s="43">
-        <v>594.652474</v>
+        <v>594.683776</v>
       </c>
       <c r="D42" s="44"/>
       <c r="E42" s="44">
-        <v>513.307128</v>
+        <v>512.636875</v>
       </c>
       <c r="F42" s="48">
         <f t="shared" si="5"/>
-        <v>0.136794765945933</v>
+        <v>0.137967276578267</v>
       </c>
       <c r="G42" s="46"/>
       <c r="H42" s="47"/>
       <c r="I42" s="47"/>
       <c r="J42" s="74"/>
       <c r="K42" s="47">
-        <v>97.537872</v>
+        <v>97.543006</v>
       </c>
       <c r="L42" s="47">
-        <v>83.236335</v>
+        <v>83.123105</v>
       </c>
       <c r="M42" s="70">
         <f t="shared" si="6"/>
-        <v>0.146625476922441</v>
+        <v>0.147831214059571</v>
       </c>
       <c r="N42" s="44"/>
       <c r="O42" s="44"/>
@@ -4563,29 +4563,29 @@
         <v>50</v>
       </c>
       <c r="C43" s="51">
-        <v>770.848286</v>
+        <v>770.879588</v>
       </c>
       <c r="D43" s="52"/>
       <c r="E43" s="52">
-        <v>689.50294</v>
+        <v>688.832687</v>
       </c>
       <c r="F43" s="53">
         <f t="shared" si="5"/>
-        <v>0.105527050494084</v>
+        <v>0.106432836304391</v>
       </c>
       <c r="G43" s="54"/>
       <c r="H43" s="52"/>
       <c r="I43" s="52"/>
       <c r="J43" s="75"/>
       <c r="K43" s="52">
-        <v>126.43839</v>
+        <v>126.443524</v>
       </c>
       <c r="L43" s="52">
-        <v>111.53878</v>
+        <v>111.420437</v>
       </c>
       <c r="M43" s="72">
         <f t="shared" si="6"/>
-        <v>0.117840870956993</v>
+        <v>0.118812624994539</v>
       </c>
       <c r="N43" s="52"/>
       <c r="O43" s="52"/>
